--- a/templates/dataplant/MIAPPE_metadata.xlsx
+++ b/templates/dataplant/MIAPPE_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8009CCA4-5BE3-413C-8AF3-1A55F5BE6FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1568A2-489B-47AC-9ABE-6244E3989257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{66F954AB-69E5-44EC-B612-CC0CA9B1CDC9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{66F954AB-69E5-44EC-B612-CC0CA9B1CDC9}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -52,75 +52,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{07B6CFBE-4507-4B57-93E3-5C671464E07F}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=c7850e9a-510e-4212-aebf-5126c020ee95</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{E32F2858-0376-4C8A-B75F-CEC2A3EF0D66}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{50A30513-C123-4174-A12A-06BBF041BC58}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{A52B78FF-C0A2-4D52-A0BF-9BCEEB8A01B5}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{90B218EC-3088-46B4-A10F-D3D147EF6F9F}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{03D84939-1422-4FA3-AE7F-DCF596419D86}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{A3DE4837-C9F9-4B4F-B702-BD20D4209D91}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{37E46CE5-2969-4AF1-8697-3AD5F401003D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms.</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{0856D8BE-8532-4E23-AC79-91FC9615CF35}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
   <si>
     <t>Source Name</t>
   </si>
@@ -426,6 +426,12 @@
   </si>
   <si>
     <t>Term Accession Number (MIAPPE:0022)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C63536</t>
+  </si>
+  <si>
+    <t>NCIT</t>
   </si>
 </sst>
 </file>
@@ -611,8 +617,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="51">
     <dxf>
@@ -899,9 +905,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -939,7 +945,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1045,7 +1051,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1187,7 +1193,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1250,11 +1256,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38AEF44-1769-411D-97F2-3162E3F8A6DC}">
   <dimension ref="A1:BA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
@@ -1642,11 +1648,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4635D7-F6C8-4998-B985-E0C713D924F7}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.5546875" customWidth="1"/>
@@ -1749,12 +1755,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="6"/>
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="6"/>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">

--- a/templates/dataplant/MIAPPE_metadata.xlsx
+++ b/templates/dataplant/MIAPPE_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1568A2-489B-47AC-9ABE-6244E3989257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC256C1-79FB-4B11-99B2-6F7BE2E3CC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{66F954AB-69E5-44EC-B612-CC0CA9B1CDC9}"/>
   </bookViews>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
   <si>
     <t>Source Name</t>
   </si>
@@ -428,10 +428,7 @@
     <t>Term Accession Number (MIAPPE:0022)</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C63536</t>
-  </si>
-  <si>
-    <t>NCIT</t>
+    <t>NCIT:C63536</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1646,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1764,9 +1761,6 @@
         <v>15</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="D14" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
